--- a/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,24; 75,5</t>
+          <t>55,6; 75,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +706,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,26</t>
+          <t>0,0; 27,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,4; 86,25</t>
+          <t>66,21; 85,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,19 +721,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,19</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,07; 77,0</t>
+          <t>62,78; 77,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,64</t>
+          <t>0,0; 26,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,91</t>
+          <t>0,0; 51,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,88; 89,01</t>
+          <t>68,93; 88,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,34 +816,34 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,11</t>
+          <t>0,0; 74,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,24; 92,32</t>
+          <t>75,37; 92,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,5</t>
+          <t>0,0; 14,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,63</t>
+          <t>0,0; 36,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,21; 88,15</t>
+          <t>73,58; 88,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,11</t>
+          <t>0,0; 62,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 47,23</t>
+          <t>9,28; 47,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,84; 73,22</t>
+          <t>51,12; 72,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,94</t>
+          <t>0,0; 40,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,85</t>
+          <t>0,0; 27,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,4; 82,77</t>
+          <t>65,46; 82,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 39,19</t>
+          <t>4,36; 39,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 28,23</t>
+          <t>6,38; 27,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,43; 75,51</t>
+          <t>62,49; 75,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1021,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,47</t>
+          <t>0,0; 25,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,13; 73,33</t>
+          <t>50,28; 74,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,91</t>
+          <t>0,0; 43,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,2</t>
+          <t>0,0; 29,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,27; 59,47</t>
+          <t>41,43; 60,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,59</t>
+          <t>0,0; 27,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,81</t>
+          <t>0,0; 18,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,57; 63,25</t>
+          <t>48,27; 63,72</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 53,16</t>
+          <t>15,71; 53,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,29 +1151,29 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,11; 71,13</t>
+          <t>38,32; 71,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,7</t>
+          <t>0,0; 34,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,46</t>
+          <t>0,0; 56,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 56,43</t>
+          <t>32,5; 57,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,04; 68,37</t>
+          <t>10,96; 67,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,61; 71,08</t>
+          <t>47,39; 70,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,52; 88,99</t>
+          <t>69,08; 89,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 46,34</t>
+          <t>6,54; 46,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,14 +1276,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,48; 76,4</t>
+          <t>60,05; 76,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 48,3</t>
+          <t>5,75; 47,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 35,46</t>
+          <t>9,02; 34,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,02; 52,71</t>
+          <t>35,31; 52,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,1</t>
+          <t>0,0; 30,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 34,66</t>
+          <t>3,76; 34,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,38; 72,24</t>
+          <t>58,69; 72,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 28,19</t>
+          <t>5,45; 28,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,97; 29,46</t>
+          <t>9,83; 28,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,27; 60,85</t>
+          <t>49,17; 60,83</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1456,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,5; 58,68</t>
+          <t>16,9; 58,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,02</t>
+          <t>0,0; 26,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,72; 98,41</t>
+          <t>78,06; 98,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,27</t>
+          <t>0,0; 35,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,22 +1481,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,11; 81,12</t>
+          <t>69,27; 80,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,59; 44,85</t>
+          <t>14,79; 43,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,99</t>
+          <t>0,0; 19,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,98; 96,66</t>
+          <t>76,75; 96,19</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,04</t>
+          <t>11,08; 28,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,16; 16,26</t>
+          <t>6,76; 16,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>63,63; 89,93</t>
+          <t>63,62; 89,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,09; 15,06</t>
+          <t>4,21; 15,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,14</t>
+          <t>3,8; 14,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,41; 73,6</t>
+          <t>67,69; 73,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,05; 19,45</t>
+          <t>9,22; 19,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,0</t>
+          <t>6,46; 13,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>66,96; 86,26</t>
+          <t>66,75; 85,69</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48761</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27399</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>76160</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1617</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1933</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40794; 55384</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4309</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23255; 30117</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1899</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5153</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68116; 83670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50231</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33456</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83686</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4755</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43069; 55516</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4255</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29785; 36468</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6414</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5519</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>75048; 89959</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4902</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35908</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41747</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77657</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5746</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1937; 9902</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29037; 40968</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5362</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36498; 45997</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>983; 8814</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2607; 11135</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70333; 84913</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32682</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29844</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>62526</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6675</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26505; 39282</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5950</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6038</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24450; 35807</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6693</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8619</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53933; 71193</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11962</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2023; 6854</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4432</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3043</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5341; 9922</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4483</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3960</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8713; 15417</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23120</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24656</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47775</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1014; 6235</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1774</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>18453; 27484</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1662</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1786</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>21107; 27482</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1017; 7258</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41729; 53217</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3058</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8104</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46271</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74693</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12385</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>120965</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>903; 7381</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3638; 13848</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>37294; 55513</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6367</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1059; 9773</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>66963; 82549</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1977; 10477</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6734; 19530</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>108030; 133653</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>9403</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>347886</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>98435</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>11479</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>446321</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4546; 15729</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7020</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>291917; 367449</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5301</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>90124; 104677</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6204; 18102</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7870</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>386855; 484839</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19647</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>589045</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>338007</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>927052</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>12122; 30912</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>10801; 26726</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>494134; 696550</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>4504; 16699</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4410; 16270</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>323638; 353144</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>19953; 41268</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>17810; 37903</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>837575; 1075311</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1670,7 +1670,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
